--- a/KPMG_Assignment/KPMG_Assignment/Content/test.xlsx
+++ b/KPMG_Assignment/KPMG_Assignment/Content/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Account</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>Raju</t>
+  </si>
+  <si>
+    <t>EDFR252</t>
+  </si>
+  <si>
+    <t>sdfsf</t>
   </si>
 </sst>
 </file>
@@ -372,7 +378,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,6 +405,15 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3">
+        <v>898374</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
